--- a/Documentation/Working_Documents/Rocket_Switch_Interface_BOM.xlsx
+++ b/Documentation/Working_Documents/Rocket_Switch_Interface_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 22-08 Rocket Switch Interface/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 22-08 Rocket Switch Interface/Rocket-Switch-Interface/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0B8E08CA-0295-4D81-99D4-E8041F22A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0602C9DF-9EFB-4658-A1FC-D83E0CE3D998}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{0B8E08CA-0295-4D81-99D4-E8041F22A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2255C19F-01BD-4B67-84E3-8203D0211EB4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM V1.0" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Total Cost</t>
   </si>
@@ -62,21 +62,9 @@
     </r>
   </si>
   <si>
-    <t>Commercial Parts:</t>
-  </si>
-  <si>
-    <t>Part type (Electrical. Mechanical, Sanitization, ect)</t>
-  </si>
-  <si>
     <t>Part Name</t>
   </si>
   <si>
-    <t>Quantity Needed</t>
-  </si>
-  <si>
-    <t>Pkg Quantity</t>
-  </si>
-  <si>
     <t>Price per package</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
     <t>https://github.com/makersmakingchange/Rocket-Switch-Interface/tree/main/Build_Files/3D_Print_Files/STL/Rocket-Switch-Interface-Jig.stl</t>
   </si>
   <si>
-    <t>15% Infill</t>
-  </si>
-  <si>
     <t>Part Label</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t>SW1,SW2</t>
   </si>
   <si>
-    <t>Date Created: 10/28/2022</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/97790603111/10056387</t>
   </si>
   <si>
@@ -194,7 +176,34 @@
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/apm-hexseal/RM3X6MM-2701/612968 </t>
   </si>
   <si>
-    <t>Device:  Rocket-Switch-Interface V1.0</t>
+    <t>Last Updated: 2022-Oct-28</t>
+  </si>
+  <si>
+    <t>Custom PCB</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Rocket Switch Interface</t>
+  </si>
+  <si>
+    <t>Part Type</t>
+  </si>
+  <si>
+    <t>Screwdriver</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>QTY / PKG</t>
+  </si>
+  <si>
+    <t>Commercial Parts</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,8 +344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -414,15 +429,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -479,6 +485,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -488,7 +518,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
@@ -499,31 +529,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -809,447 +843,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="G2" s="5">
+        <f>SUM(H6:H13)+H20</f>
+        <v>21.341750000000001</v>
+      </c>
+      <c r="H2" s="38">
+        <f>SUM(H6:H11)+H20</f>
+        <v>21.341750000000001</v>
+      </c>
+      <c r="I2" s="6">
+        <f>SUM(E15:E19)</f>
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="J2" s="20">
+        <f>SUM(G15:G19)/60</f>
+        <v>0.81666666666666665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26">
+        <v>9.73</v>
+      </c>
+      <c r="G6" s="26">
+        <f>F6/E6</f>
+        <v>9.73</v>
+      </c>
+      <c r="H6" s="15">
+        <f>G6*D6</f>
+        <v>9.73</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1.48</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" ref="G7:G11" si="0">F7/E7</f>
+        <v>1.48</v>
+      </c>
+      <c r="H7" s="15">
+        <f>G7*D7</f>
+        <v>2.96</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="15">
+        <f>G8*D8</f>
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1.7</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="H9" s="15">
+        <f>G9*D9</f>
+        <v>1.7</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.43</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="H10" s="15">
+        <f>G10*D10</f>
+        <v>0.43</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="5">
-        <f>SUM(H5:H11)+F18</f>
-        <v>15.341750000000001</v>
-      </c>
-      <c r="E2" s="23">
-        <f>SUM(G13:G17)/60</f>
-        <v>0.81666666666666665</v>
-      </c>
-      <c r="F2" s="6">
-        <f>SUM(E13:E17)</f>
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="B11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="F11" s="26">
+        <v>30</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="H11" s="15">
+        <f>G11*D11</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29">
+        <v>25</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="30">
-        <v>9.73</v>
-      </c>
-      <c r="G5" s="30">
-        <v>9.73</v>
-      </c>
-      <c r="H5" s="17">
-        <f>G5*D5</f>
-        <v>9.73</v>
-      </c>
-      <c r="J5" s="31" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="29">
-        <v>2</v>
-      </c>
-      <c r="E6" s="29">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1.48</v>
-      </c>
-      <c r="G6" s="30">
-        <v>1.48</v>
-      </c>
-      <c r="H6" s="17">
-        <f>G6*D6</f>
-        <v>2.96</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="29">
-        <v>2</v>
-      </c>
-      <c r="E7" s="29">
-        <v>1</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="H7" s="17">
-        <f>G7*D7</f>
-        <v>0.3</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1.7</v>
-      </c>
-      <c r="G8" s="30">
-        <v>1.7</v>
-      </c>
-      <c r="H8" s="17">
-        <f>G8*D8</f>
-        <v>1.7</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0.43</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0.43</v>
-      </c>
-      <c r="H9" s="17">
-        <f>G9*D9</f>
-        <v>0.43</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="33">
-        <v>25</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>4.53</v>
-      </c>
-      <c r="F13" s="17">
-        <f>(E13/1000)*$B$11</f>
-        <v>0.11325</v>
-      </c>
-      <c r="G13">
-        <v>22</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>3.83</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" ref="F14:F17" si="0">(E14/1000)*$B$11</f>
-        <v>9.5750000000000002E-2</v>
-      </c>
-      <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
+        <v>4.53</v>
+      </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15" s="15">
+        <f>(E15/1000)*$B$13</f>
+        <v>0.11325</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3.83</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16" s="15">
+        <f>(E16/1000)*$B$13</f>
+        <v>9.5750000000000002E-2</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>0.51</v>
       </c>
-      <c r="F15" s="17">
-        <f t="shared" si="0"/>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="15">
+        <f>(E17/1000)*$B$13</f>
         <v>1.2750000000000001E-2</v>
       </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="17">
-        <f t="shared" si="0"/>
+      <c r="I17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="15">
+        <f>(E18/1000)*$B$13</f>
         <v>0</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="17">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="15">
+        <f>(E19/1000)*$B$13</f>
         <v>0</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="E18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="20">
-        <f>SUM(F13:F17)</f>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="G20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUM(H15:H19)</f>
         <v>0.22175000000000003</v>
       </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>12</v>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{68798AB1-ED18-4CA0-9F96-1EA49F62F7AB}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{6D7C3FAC-9999-4CB2-806E-9D1594A9D98A}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{C8CD3D57-1547-450D-A147-865562893909}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{4065E158-A827-4FF5-854E-CBEAF2D0D676}"/>
-    <hyperlink ref="H13" r:id="rId5" xr:uid="{B41A4413-2ABB-4359-A262-60B9A31608F4}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{4D73C4B4-5CBA-4FF8-B109-99807E5BCBAA}"/>
-    <hyperlink ref="H15" r:id="rId7" xr:uid="{E43B10BD-3457-44C1-99AA-B2F71589D740}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{21D00CDE-17F9-4F1E-9627-E4476FAC8379}"/>
-    <hyperlink ref="K9" r:id="rId9" xr:uid="{BB0E76AB-B6EE-4EB3-A2B6-A064D6AED3EE}"/>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{68798AB1-ED18-4CA0-9F96-1EA49F62F7AB}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{6D7C3FAC-9999-4CB2-806E-9D1594A9D98A}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{C8CD3D57-1547-450D-A147-865562893909}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{4065E158-A827-4FF5-854E-CBEAF2D0D676}"/>
+    <hyperlink ref="I15" r:id="rId5" xr:uid="{B41A4413-2ABB-4359-A262-60B9A31608F4}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{4D73C4B4-5CBA-4FF8-B109-99807E5BCBAA}"/>
+    <hyperlink ref="I17" r:id="rId7" xr:uid="{E43B10BD-3457-44C1-99AA-B2F71589D740}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{21D00CDE-17F9-4F1E-9627-E4476FAC8379}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{BB0E76AB-B6EE-4EB3-A2B6-A064D6AED3EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -1257,14 +1332,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,29 +1578,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1ccc884c-acc6-4907-b9d9-a5a76f4fb80e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e4aa5b0e-c599-4492-a04c-87c1e111489c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1552,9 +1616,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1ccc884c-acc6-4907-b9d9-a5a76f4fb80e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e4aa5b0e-c599-4492-a04c-87c1e111489c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>